--- a/data/trans_media/Q23_1_2015-Habitat-trans_media.xlsx
+++ b/data/trans_media/Q23_1_2015-Habitat-trans_media.xlsx
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>15,68; 17,08</t>
+          <t>15,78; 17,17</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>16,16; 18,26</t>
+          <t>16,13; 18,32</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>16,34; 18,64</t>
+          <t>16,22; 18,47</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>16,96; 19,34</t>
+          <t>17,05; 19,37</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>16,18; 17,38</t>
+          <t>16,16; 17,49</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>16,59; 18,28</t>
+          <t>16,59; 18,34</t>
         </is>
       </c>
     </row>
@@ -719,32 +719,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>15,98; 16,93</t>
+          <t>15,95; 16,86</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>15,82; 16,39</t>
+          <t>15,82; 16,37</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>17,39; 19,08</t>
+          <t>17,49; 19,11</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>16,84; 17,65</t>
+          <t>16,82; 17,62</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>16,61; 17,51</t>
+          <t>16,64; 17,56</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>16,31; 16,77</t>
+          <t>16,29; 16,79</t>
         </is>
       </c>
     </row>
@@ -799,22 +799,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>16,25; 16,96</t>
+          <t>16,26; 16,96</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>16,18; 16,81</t>
+          <t>16,18; 16,78</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>16,95; 17,85</t>
+          <t>16,95; 17,8</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>16,86; 17,47</t>
+          <t>16,85; 17,47</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -824,7 +824,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>16,5; 16,96</t>
+          <t>16,49; 16,95</t>
         </is>
       </c>
     </row>
@@ -879,32 +879,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,18; 16,79</t>
+          <t>16,18; 16,81</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>16,78; 17,76</t>
+          <t>16,75; 17,75</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>17,18; 18,32</t>
+          <t>17,21; 18,27</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>17,23; 18,21</t>
+          <t>17,29; 18,26</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>16,73; 17,29</t>
+          <t>16,68; 17,3</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>17,1; 17,79</t>
+          <t>17,1; 17,77</t>
         </is>
       </c>
     </row>
@@ -959,32 +959,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>16,22; 16,95</t>
+          <t>16,19; 16,94</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>16,33; 16,95</t>
+          <t>16,35; 16,94</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>17,4; 18,38</t>
+          <t>17,4; 18,43</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>17,21; 18,07</t>
+          <t>17,23; 18,03</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>16,84; 17,45</t>
+          <t>16,82; 17,45</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>16,82; 17,31</t>
+          <t>16,83; 17,35</t>
         </is>
       </c>
     </row>
@@ -1039,12 +1039,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>16,31; 16,67</t>
+          <t>16,32; 16,67</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>16,46; 16,84</t>
+          <t>16,46; 16,82</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1054,17 +1054,17 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>17,24; 17,66</t>
+          <t>17,25; 17,67</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>16,82; 17,14</t>
+          <t>16,82; 17,13</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>16,85; 17,11</t>
+          <t>16,83; 17,12</t>
         </is>
       </c>
     </row>

--- a/data/trans_media/Q23_1_2015-Habitat-trans_media.xlsx
+++ b/data/trans_media/Q23_1_2015-Habitat-trans_media.xlsx
@@ -549,7 +549,7 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -559,7 +559,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -569,7 +569,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -639,7 +639,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>15,78; 17,17</t>
+          <t>15,68; 17,05</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>16,22; 18,47</t>
+          <t>16,33; 18,64</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>16,16; 17,49</t>
+          <t>16,15; 17,36</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -671,7 +671,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -719,7 +719,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>15,95; 16,86</t>
+          <t>15,97; 16,9</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -729,7 +729,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>17,49; 19,11</t>
+          <t>17,42; 19,22</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>16,64; 17,56</t>
+          <t>16,63; 17,54</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -751,7 +751,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -799,7 +799,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>16,26; 16,96</t>
+          <t>16,24; 16,91</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -809,7 +809,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>16,95; 17,8</t>
+          <t>16,97; 17,84</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>16,61; 17,18</t>
+          <t>16,61; 17,16</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,18; 16,81</t>
+          <t>16,18; 16,79</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>17,21; 18,27</t>
+          <t>17,22; 18,33</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>16,68; 17,3</t>
+          <t>16,68; 17,27</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -969,7 +969,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>17,4; 18,43</t>
+          <t>17,35; 18,4</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>16,82; 17,45</t>
+          <t>16,85; 17,45</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>16,32; 16,67</t>
+          <t>16,32; 16,68</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1049,7 +1049,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>17,43; 17,95</t>
+          <t>17,42; 17,96</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>16,82; 17,13</t>
+          <t>16,84; 17,15</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
